--- a/data/trans_dic/P71_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04682111880172599</v>
+        <v>0.04633561287339506</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1128650508465502</v>
+        <v>0.1131756645910661</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09401988503943376</v>
+        <v>0.09449034313370766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03550474982883468</v>
+        <v>0.03423677480738069</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09938302522889397</v>
+        <v>0.09668361628930379</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1060617620032505</v>
+        <v>0.1063797953000753</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09776820392212071</v>
+        <v>0.09599110488723224</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02304723037758536</v>
+        <v>0.02529113285197559</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07278397869533379</v>
+        <v>0.0741723696372503</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1195999121361263</v>
+        <v>0.1194137375503973</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1029624131060268</v>
+        <v>0.1057268950284272</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03296998881965588</v>
+        <v>0.03516954754704507</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09822347557212267</v>
+        <v>0.09581789233326954</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1912328807962378</v>
+        <v>0.1917053110211764</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1617556791775987</v>
+        <v>0.1577697243115315</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07686021992315209</v>
+        <v>0.07654574244387533</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.175838724189197</v>
+        <v>0.1777326766852887</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1939358323915492</v>
+        <v>0.1912945527073676</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1667083104659605</v>
+        <v>0.1683271123864872</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05437126563565781</v>
+        <v>0.05726009768441712</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.117276869616862</v>
+        <v>0.1174232915786139</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1804531662118325</v>
+        <v>0.1767724371871486</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1511539499241247</v>
+        <v>0.153207255692844</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05892013145907925</v>
+        <v>0.06204192812329099</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2241406765925482</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03714852447761085</v>
+        <v>0.03714852447761084</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1940623033635786</v>
@@ -821,7 +821,7 @@
         <v>0.2534670865216776</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0671318466886716</v>
+        <v>0.06713184668867161</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1601014143586244</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09333576755896597</v>
+        <v>0.09175480213693041</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1054043743978836</v>
+        <v>0.103595353540888</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1859811659627595</v>
+        <v>0.1781995999776224</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02318713993350344</v>
+        <v>0.02279004708540928</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1521441999421165</v>
+        <v>0.1532817617510348</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1353449085200338</v>
+        <v>0.1369666431693924</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.207919952301536</v>
+        <v>0.2129041123143606</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04926718905910833</v>
+        <v>0.04838802156993698</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1356941410655865</v>
+        <v>0.1365959220483111</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1289174043303582</v>
+        <v>0.1273179074147942</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2076980895968897</v>
+        <v>0.2090656550582445</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03929414610649067</v>
+        <v>0.03992896562052421</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1619387643108313</v>
+        <v>0.1637418799028919</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1787001622061217</v>
+        <v>0.1771224295598295</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2730588380445834</v>
+        <v>0.2716314101022867</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06190587365402613</v>
+        <v>0.0576966919934031</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2344240172762708</v>
+        <v>0.2364983576939125</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2235688367393792</v>
+        <v>0.2246787195313346</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3025267127498305</v>
+        <v>0.3006814510082949</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09205985017274014</v>
+        <v>0.09067834734211697</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1861299898554968</v>
+        <v>0.1913114320478414</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1863686526135478</v>
+        <v>0.18419925161865</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2719214283441174</v>
+        <v>0.270833890601142</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06783061510746853</v>
+        <v>0.06625139492514215</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1226379011390941</v>
+        <v>0.1207144125222988</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2982729230557913</v>
+        <v>0.3015512369422328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.325425911760097</v>
+        <v>0.328561162469291</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1070407037947241</v>
+        <v>0.1032567345232115</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1564367706515789</v>
+        <v>0.1554835087377908</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.229840318366543</v>
+        <v>0.2293661791936034</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2578701928631578</v>
+        <v>0.2612059765594054</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08742045499858425</v>
+        <v>0.0852018730557204</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1395897044455642</v>
+        <v>0.1389890361641094</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2915567745019957</v>
+        <v>0.2899085421157448</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3282202878551904</v>
+        <v>0.3293984325348105</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1072485194908382</v>
+        <v>0.1094661652029845</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1848769744561826</v>
+        <v>0.1847250475171349</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3729637138484536</v>
+        <v>0.378812191430478</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4190297724981521</v>
+        <v>0.417327660433912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1680876038788555</v>
+        <v>0.1675627591033317</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2837780354682695</v>
+        <v>0.2787164892234906</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3488600041507705</v>
+        <v>0.34310907381766</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4124792426485883</v>
+        <v>0.4113854599204724</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1654110920689154</v>
+        <v>0.1630645285976926</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1957221888172926</v>
+        <v>0.1957796070315084</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3618222956670832</v>
+        <v>0.35489061467783</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4015248065729502</v>
+        <v>0.4001097318850644</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1573682274028476</v>
+        <v>0.1588475180139104</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2021595661284519</v>
+        <v>0.2032044848796398</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.351907876262009</v>
+        <v>0.3531964073293106</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3579956758066868</v>
+        <v>0.3605125646069511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1339333297219563</v>
+        <v>0.1320385801418353</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2260626327839668</v>
+        <v>0.2250975072291738</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3292503971917325</v>
+        <v>0.332390573464008</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3504739422399167</v>
+        <v>0.3541406551832013</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1458132192108587</v>
+        <v>0.1433089162001293</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.216508095588602</v>
+        <v>0.218799510167192</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3523743282674394</v>
+        <v>0.3546701884080988</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3646297389725155</v>
+        <v>0.3632659864670563</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1435489093399314</v>
+        <v>0.1432694291043538</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2500806321342727</v>
+        <v>0.2496209615149055</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.414799129440672</v>
+        <v>0.4142054199153265</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4155836088592502</v>
+        <v>0.4183268492506981</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1818136554493929</v>
+        <v>0.1805374279638193</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2919990228789176</v>
+        <v>0.2930920200377808</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4013069769407963</v>
+        <v>0.4006636943072795</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4196815952022714</v>
+        <v>0.4203765830415894</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1883374262061522</v>
+        <v>0.1872757595543384</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2559206283271516</v>
+        <v>0.2586407370104048</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3977559556395353</v>
+        <v>0.3992141837035894</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4083998692972527</v>
+        <v>0.4081200253902098</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1768738266841169</v>
+        <v>0.1762648792155043</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2927034076382437</v>
+        <v>0.2925180814232452</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3680179205088542</v>
+        <v>0.3674524772268087</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4370374147230042</v>
+        <v>0.4370056009556021</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2558837845595027</v>
+        <v>0.2500558685396186</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3129064800063495</v>
+        <v>0.3133344705559404</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.37573431956993</v>
+        <v>0.3794769977951232</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4955520555656035</v>
+        <v>0.4934348631307693</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2711401519268188</v>
+        <v>0.2685352280313267</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3148019451539734</v>
+        <v>0.3171859909506388</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3845141041992646</v>
+        <v>0.3849569533569629</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.480893139443109</v>
+        <v>0.4770245884638569</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2746740301431745</v>
+        <v>0.271125369090653</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3910759709803424</v>
+        <v>0.3956538421571166</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4593588993482</v>
+        <v>0.4613415124415324</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5145706428924375</v>
+        <v>0.517595774071431</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3347429953723506</v>
+        <v>0.3375187381133355</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3982312339019174</v>
+        <v>0.394780795391667</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.450735426252872</v>
+        <v>0.4477338409912327</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5666708388898201</v>
+        <v>0.5697402547513311</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3262188140353793</v>
+        <v>0.3252048412855014</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3803664591364321</v>
+        <v>0.3795468178368599</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4402352025734959</v>
+        <v>0.4422431800703605</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5356568219381879</v>
+        <v>0.5318699036113254</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3211126629591216</v>
+        <v>0.3182170709047297</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.2245352399753213</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1591743570557489</v>
+        <v>0.159174357055749</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.3257252364754701</v>
@@ -1365,7 +1365,7 @@
         <v>0.33014017483098</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1798384707304723</v>
+        <v>0.1798384707304722</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2855591467500125</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08357859825587202</v>
+        <v>0.0823186882190946</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1632786353975282</v>
+        <v>0.1577291044579928</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1777905407853905</v>
+        <v>0.1778829213455485</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09009618896940795</v>
+        <v>0.09360535180848287</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2963913837131169</v>
+        <v>0.2967782545262072</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2866833472659282</v>
+        <v>0.2879601782502858</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2989772540292868</v>
+        <v>0.3010515926743602</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1547034114962422</v>
+        <v>0.1543869154559775</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2630376094445678</v>
+        <v>0.2620813112917232</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2702519797247984</v>
+        <v>0.2703007890269043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2825129884641211</v>
+        <v>0.2824875928346857</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1497920923994682</v>
+        <v>0.1495062710480937</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1570071071924981</v>
+        <v>0.1563629568103321</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2617595870946345</v>
+        <v>0.2577746288877403</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2802074959724226</v>
+        <v>0.2772710061347819</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2451663127777407</v>
+        <v>0.2415782289657275</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3495300425224356</v>
+        <v>0.3519558529447739</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3413934174538994</v>
+        <v>0.3467903447324471</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3589577226457871</v>
+        <v>0.3581276932919878</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2062095731190881</v>
+        <v>0.2064493165356025</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3111105765432772</v>
+        <v>0.3103081418732358</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3192167750313726</v>
+        <v>0.3195862931677187</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3338686459639725</v>
+        <v>0.3370259913646063</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.202638936556117</v>
+        <v>0.2034417871958636</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3578193414013755</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.1681050514673499</v>
+        <v>0.1681050514673498</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2304051549556664</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1681926950970672</v>
+        <v>0.1680824139096763</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2900548276249327</v>
+        <v>0.2896463630252624</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3176812034157074</v>
+        <v>0.3190259527340346</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1303724074583818</v>
+        <v>0.1297764611888791</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2626293650602905</v>
+        <v>0.2627073833455066</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3002501036714313</v>
+        <v>0.3000864971119479</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.342452785817726</v>
+        <v>0.3422534038551592</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1572086420366686</v>
+        <v>0.1570918177029662</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2202462663057076</v>
+        <v>0.2202577341456956</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.29943426836649</v>
+        <v>0.2992139168151553</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3355075283215056</v>
+        <v>0.3345243866303561</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.147103098333432</v>
+        <v>0.1464853721533586</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1959749370979341</v>
+        <v>0.1950151816342872</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3233130386969078</v>
+        <v>0.3227183498883955</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3511520358687707</v>
+        <v>0.3522502094293652</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1573954704418681</v>
+        <v>0.1556959308780693</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2946074321969873</v>
+        <v>0.2931063979580996</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3336379316744418</v>
+        <v>0.3320220089124257</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3748992037559185</v>
+        <v>0.3756759513317973</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1791127118858199</v>
+        <v>0.1797104201004324</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2402619505559392</v>
+        <v>0.2410704834698922</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3227647257893732</v>
+        <v>0.3227053038117288</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3578833876512086</v>
+        <v>0.3584715381678678</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1646898291149643</v>
+        <v>0.1647508891838603</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21907</v>
+        <v>21679</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>48986</v>
+        <v>49121</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>39902</v>
+        <v>40102</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19476</v>
+        <v>18781</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>30068</v>
+        <v>29251</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>33243</v>
+        <v>33343</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>33931</v>
+        <v>33314</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11203</v>
+        <v>12293</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>56074</v>
+        <v>57144</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>89396</v>
+        <v>89256</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>79431</v>
+        <v>81563</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>34112</v>
+        <v>36388</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45957</v>
+        <v>44831</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>82999</v>
+        <v>83204</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>68649</v>
+        <v>66957</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42162</v>
+        <v>41990</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>53199</v>
+        <v>53772</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>60786</v>
+        <v>59958</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>57857</v>
+        <v>58419</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26429</v>
+        <v>27833</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>90353</v>
+        <v>90465</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>134881</v>
+        <v>132129</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>116608</v>
+        <v>118192</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>60961</v>
+        <v>64191</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>33714</v>
+        <v>33143</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>43609</v>
+        <v>42860</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>69817</v>
+        <v>66896</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11176</v>
+        <v>10985</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>55702</v>
+        <v>56119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>45622</v>
+        <v>46168</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>77064</v>
+        <v>78911</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>20726</v>
+        <v>20357</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>98694</v>
+        <v>99350</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>96791</v>
+        <v>95591</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>154952</v>
+        <v>155972</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>35470</v>
+        <v>36044</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>58494</v>
+        <v>59145</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>73933</v>
+        <v>73280</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>102506</v>
+        <v>101970</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29839</v>
+        <v>27810</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>85826</v>
+        <v>86586</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>75360</v>
+        <v>75734</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>112129</v>
+        <v>111445</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>38729</v>
+        <v>38148</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>135377</v>
+        <v>139146</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>139926</v>
+        <v>138297</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>202865</v>
+        <v>202054</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>61230</v>
+        <v>59805</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>65441</v>
+        <v>64414</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>187433</v>
+        <v>189493</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>168504</v>
+        <v>170128</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>50374</v>
+        <v>48593</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>25789</v>
+        <v>25632</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>59359</v>
+        <v>59237</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>42075</v>
+        <v>42619</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16287</v>
+        <v>15874</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>97498</v>
+        <v>97078</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>258511</v>
+        <v>257049</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>223505</v>
+        <v>224307</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>70453</v>
+        <v>71910</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>98652</v>
+        <v>98571</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>234368</v>
+        <v>238043</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>216972</v>
+        <v>216091</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>79103</v>
+        <v>78856</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>46782</v>
+        <v>45947</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>90098</v>
+        <v>88612</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>67302</v>
+        <v>67123</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30818</v>
+        <v>30380</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>136704</v>
+        <v>136744</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>320812</v>
+        <v>314666</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>273422</v>
+        <v>272459</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>103378</v>
+        <v>104349</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>247002</v>
+        <v>248279</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>405942</v>
+        <v>407428</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>408655</v>
+        <v>411528</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>149998</v>
+        <v>147876</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>156540</v>
+        <v>155872</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>251789</v>
+        <v>254191</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>287681</v>
+        <v>290691</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>124737</v>
+        <v>122595</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>414458</v>
+        <v>418844</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>675953</v>
+        <v>680357</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>715529</v>
+        <v>712852</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>283567</v>
+        <v>283015</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>305553</v>
+        <v>304992</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>478490</v>
+        <v>477805</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>474392</v>
+        <v>477523</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>203621</v>
+        <v>202192</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>202199</v>
+        <v>202956</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>306893</v>
+        <v>306402</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>344489</v>
+        <v>345060</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>161115</v>
+        <v>160207</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>489905</v>
+        <v>495112</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>763007</v>
+        <v>765805</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>801421</v>
+        <v>800871</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>349397</v>
+        <v>348195</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>101387</v>
+        <v>101322</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>187908</v>
+        <v>187620</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>268729</v>
+        <v>268709</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>142089</v>
+        <v>138853</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>173201</v>
+        <v>173438</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>284946</v>
+        <v>287785</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>365380</v>
+        <v>363819</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>224057</v>
+        <v>221905</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>283291</v>
+        <v>285436</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>487936</v>
+        <v>488498</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>650267</v>
+        <v>645036</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>379501</v>
+        <v>374598</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>135461</v>
+        <v>137047</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>234547</v>
+        <v>235559</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>316403</v>
+        <v>318263</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>185879</v>
+        <v>187420</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>220430</v>
+        <v>218520</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>341825</v>
+        <v>339549</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>417818</v>
+        <v>420081</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>269572</v>
+        <v>268734</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>342293</v>
+        <v>341555</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>558644</v>
+        <v>561192</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>724319</v>
+        <v>719198</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>443662</v>
+        <v>439662</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>24537</v>
+        <v>24167</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>43105</v>
+        <v>41640</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>50611</v>
+        <v>50637</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>19873</v>
+        <v>20647</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>365865</v>
+        <v>366343</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>316113</v>
+        <v>317521</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>321349</v>
+        <v>323579</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>128326</v>
+        <v>128064</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>401916</v>
+        <v>400455</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>369341</v>
+        <v>369407</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>384074</v>
+        <v>384040</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>157293</v>
+        <v>156993</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>46094</v>
+        <v>45905</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>69103</v>
+        <v>68051</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>79765</v>
+        <v>78929</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>54079</v>
+        <v>53287</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>431460</v>
+        <v>434454</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>376440</v>
+        <v>382391</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>385818</v>
+        <v>384926</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>171050</v>
+        <v>171249</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>475370</v>
+        <v>474144</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>436259</v>
+        <v>436764</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>453892</v>
+        <v>458184</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>212787</v>
+        <v>213630</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>542333</v>
+        <v>541978</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>987427</v>
+        <v>986036</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1066981</v>
+        <v>1071498</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>442872</v>
+        <v>440847</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>870326</v>
+        <v>870585</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1061245</v>
+        <v>1060667</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1203326</v>
+        <v>1202626</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>566642</v>
+        <v>566221</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1440052</v>
+        <v>1440127</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2077719</v>
+        <v>2076190</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2305775</v>
+        <v>2299019</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1029923</v>
+        <v>1025598</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>631916</v>
+        <v>628822</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1100647</v>
+        <v>1098622</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1179398</v>
+        <v>1183087</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>534668</v>
+        <v>528895</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>976298</v>
+        <v>971324</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1179256</v>
+        <v>1173544</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1317338</v>
+        <v>1320067</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>645593</v>
+        <v>647747</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1570922</v>
+        <v>1576208</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2239604</v>
+        <v>2239192</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2459554</v>
+        <v>2463596</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1153054</v>
+        <v>1153482</v>
       </c>
     </row>
     <row r="32">
